--- a/pred_hv_descriptors.xlsx
+++ b/pred_hv_descriptors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Desktop\VickersHardnessPrediction-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Desktop\Vicker-s-Micro-Hardness-ANN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E29B00-5A22-47A1-B82E-1817B16459E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4F42EE-0A0E-477F-9679-6EDE9E772BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="4215" windowWidth="12825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="1470" windowWidth="12825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>Composition</t>
   </si>
@@ -454,15 +454,6 @@
   </si>
   <si>
     <t>B3C10N3</t>
-  </si>
-  <si>
-    <t>LaSi2</t>
-  </si>
-  <si>
-    <t>WSi2</t>
-  </si>
-  <si>
-    <t>ScB2C2</t>
   </si>
   <si>
     <t>N</t>
@@ -842,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EL6"/>
+  <dimension ref="A1:EL3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EA1" workbookViewId="0">
-      <selection activeCell="EG5" sqref="EG5"/>
+      <selection activeCell="EL4" sqref="EL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1266,7 @@
         <v>140</v>
       </c>
       <c r="EL1" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:142" x14ac:dyDescent="0.25">
@@ -2131,1291 +2122,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="EL3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4">
-        <v>28.333333333333329</v>
-      </c>
-      <c r="C4">
-        <v>65.025499999999994</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>10.33333333333333</v>
-      </c>
-      <c r="F4">
         <v>5</v>
-      </c>
-      <c r="G4">
-        <v>56.333333333333343</v>
-      </c>
-      <c r="H4">
-        <v>1.3833333333333331</v>
-      </c>
-      <c r="I4">
-        <v>1.303333333333333</v>
-      </c>
-      <c r="J4">
-        <v>1.9733333333333329</v>
-      </c>
-      <c r="K4">
-        <v>1.3833333333333331</v>
-      </c>
-      <c r="L4">
-        <v>0.72</v>
-      </c>
-      <c r="M4">
-        <v>1.6333333333333331</v>
-      </c>
-      <c r="N4">
-        <v>1.77</v>
-      </c>
-      <c r="O4">
-        <v>4.2957333333333327</v>
-      </c>
-      <c r="P4">
-        <v>4.2133333333333329</v>
-      </c>
-      <c r="Q4">
-        <v>1.6406666666666661</v>
-      </c>
-      <c r="R4">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="S4">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="W4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X4">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Y4">
-        <v>704</v>
-      </c>
-      <c r="Z4">
-        <v>13.96666666666667</v>
-      </c>
-      <c r="AA4">
-        <v>1519.8166666666671</v>
-      </c>
-      <c r="AB4">
-        <v>2994.4833333333331</v>
-      </c>
-      <c r="AC4">
-        <v>3.6033333333333331</v>
-      </c>
-      <c r="AD4">
-        <v>0.53666666666666663</v>
-      </c>
-      <c r="AE4">
-        <v>35.766666666666673</v>
-      </c>
-      <c r="AF4">
-        <v>394.14666666666659</v>
-      </c>
-      <c r="AG4">
-        <v>103.1666666666667</v>
-      </c>
-      <c r="AH4">
-        <v>442.33333333333331</v>
-      </c>
-      <c r="AI4">
-        <v>4.5766666666666662</v>
-      </c>
-      <c r="AJ4">
-        <v>104.4789333333333</v>
-      </c>
-      <c r="AK4">
-        <v>43</v>
-      </c>
-      <c r="AL4">
-        <v>110.82</v>
-      </c>
-      <c r="AM4">
-        <v>3</v>
-      </c>
-      <c r="AN4">
-        <v>11</v>
-      </c>
-      <c r="AO4">
-        <v>3</v>
-      </c>
-      <c r="AP4">
-        <v>65</v>
-      </c>
-      <c r="AQ4">
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="AR4">
-        <v>0.57999999999999985</v>
-      </c>
-      <c r="AS4">
-        <v>1.66</v>
-      </c>
-      <c r="AT4">
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="AU4">
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="AV4">
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="AW4">
-        <v>0.62999999999999989</v>
-      </c>
-      <c r="AX4">
-        <v>0.33159999999999989</v>
-      </c>
-      <c r="AY4">
-        <v>1.669999999999999</v>
-      </c>
-      <c r="AZ4">
-        <v>0.82599999999999985</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>3</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>2</v>
-      </c>
-      <c r="BF4">
-        <v>1</v>
-      </c>
-      <c r="BG4">
-        <v>2</v>
-      </c>
-      <c r="BH4">
-        <v>249</v>
-      </c>
-      <c r="BI4">
-        <v>25.7</v>
-      </c>
-      <c r="BJ4">
-        <v>490</v>
-      </c>
-      <c r="BK4">
-        <v>1099</v>
-      </c>
-      <c r="BL4">
-        <v>3.82</v>
-      </c>
-      <c r="BM4">
-        <v>0.52</v>
-      </c>
-      <c r="BN4">
-        <v>44.349999999999987</v>
-      </c>
-      <c r="BO4">
-        <v>29.779999999999969</v>
-      </c>
-      <c r="BP4">
-        <v>134.5</v>
-      </c>
-      <c r="BQ4">
-        <v>29</v>
-      </c>
-      <c r="BR4">
-        <v>0.16000000000000009</v>
-      </c>
-      <c r="BS4">
-        <v>88.7684</v>
-      </c>
-      <c r="BT4">
-        <v>57</v>
-      </c>
-      <c r="BU4">
-        <v>138.90549999999999</v>
-      </c>
-      <c r="BV4">
-        <v>6</v>
-      </c>
-      <c r="BW4">
-        <v>14</v>
-      </c>
-      <c r="BX4">
-        <v>6</v>
-      </c>
-      <c r="BY4">
-        <v>78</v>
-      </c>
-      <c r="BZ4">
-        <v>1.95</v>
-      </c>
-      <c r="CA4">
-        <v>1.69</v>
-      </c>
-      <c r="CB4">
-        <v>3.08</v>
-      </c>
-      <c r="CC4">
-        <v>1.95</v>
-      </c>
-      <c r="CD4">
-        <v>1.36</v>
-      </c>
-      <c r="CE4">
-        <v>1.9</v>
-      </c>
-      <c r="CF4">
-        <v>1.98</v>
-      </c>
-      <c r="CG4">
-        <v>4.5167999999999999</v>
-      </c>
-      <c r="CH4">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="CI4">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="CJ4">
-        <v>4</v>
-      </c>
-      <c r="CK4">
-        <v>4</v>
-      </c>
-      <c r="CL4">
-        <v>4</v>
-      </c>
-      <c r="CM4">
-        <v>2</v>
-      </c>
-      <c r="CN4">
-        <v>2</v>
-      </c>
-      <c r="CO4">
-        <v>1</v>
-      </c>
-      <c r="CP4">
-        <v>4</v>
-      </c>
-      <c r="CQ4">
-        <v>787</v>
-      </c>
-      <c r="CR4">
-        <v>31.1</v>
-      </c>
-      <c r="CS4">
-        <v>1683.15</v>
-      </c>
-      <c r="CT4">
-        <v>3727.15</v>
-      </c>
-      <c r="CU4">
-        <v>6.15</v>
-      </c>
-      <c r="CV4">
-        <v>0.71</v>
-      </c>
-      <c r="CW4">
-        <v>50.55</v>
-      </c>
-      <c r="CX4">
-        <v>414</v>
-      </c>
-      <c r="CY4">
-        <v>148</v>
-      </c>
-      <c r="CZ4">
-        <v>452</v>
-      </c>
-      <c r="DA4">
-        <v>4.63</v>
-      </c>
-      <c r="DB4">
-        <v>134.0684</v>
-      </c>
-      <c r="DC4">
-        <v>14</v>
-      </c>
-      <c r="DD4">
-        <v>28.0855</v>
-      </c>
-      <c r="DE4">
-        <v>3</v>
-      </c>
-      <c r="DF4">
-        <v>3</v>
-      </c>
-      <c r="DG4">
-        <v>3</v>
-      </c>
-      <c r="DH4">
-        <v>13</v>
-      </c>
-      <c r="DI4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DJ4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="DK4">
-        <v>1.42</v>
-      </c>
-      <c r="DL4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DM4">
-        <v>0.4</v>
-      </c>
-      <c r="DN4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DO4">
-        <v>1.35</v>
-      </c>
-      <c r="DP4">
-        <v>4.1852</v>
-      </c>
-      <c r="DQ4">
-        <v>3.1</v>
-      </c>
-      <c r="DR4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="DS4">
-        <v>3</v>
-      </c>
-      <c r="DT4">
-        <v>3</v>
-      </c>
-      <c r="DU4">
-        <v>1</v>
-      </c>
-      <c r="DV4">
-        <v>2</v>
-      </c>
-      <c r="DW4">
-        <v>0</v>
-      </c>
-      <c r="DX4">
-        <v>0</v>
-      </c>
-      <c r="DY4">
-        <v>2</v>
-      </c>
-      <c r="DZ4">
-        <v>538</v>
-      </c>
-      <c r="EA4">
-        <v>5.4</v>
-      </c>
-      <c r="EB4">
-        <v>1193.1500000000001</v>
-      </c>
-      <c r="EC4">
-        <v>2628.15</v>
-      </c>
-      <c r="ED4">
-        <v>2.33</v>
-      </c>
-      <c r="EE4">
-        <v>0.19</v>
-      </c>
-      <c r="EF4">
-        <v>6.2</v>
-      </c>
-      <c r="EG4">
-        <v>384.22</v>
-      </c>
-      <c r="EH4">
-        <v>13.5</v>
-      </c>
-      <c r="EI4">
-        <v>423</v>
-      </c>
-      <c r="EJ4">
-        <v>4.47</v>
-      </c>
-      <c r="EK4">
-        <v>45.3</v>
-      </c>
-      <c r="EL4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>80.003666666666675</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>11.33333333333333</v>
-      </c>
-      <c r="F5">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>69</v>
-      </c>
-      <c r="H5">
-        <v>1.1833333333333329</v>
-      </c>
-      <c r="I5">
-        <v>1.1733333333333329</v>
-      </c>
-      <c r="J5">
-        <v>1.8583333333333329</v>
-      </c>
-      <c r="K5">
-        <v>1.1833333333333329</v>
-      </c>
-      <c r="L5">
-        <v>0.51333333333333331</v>
-      </c>
-      <c r="M5">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="N5">
-        <v>1.916666666666667</v>
-      </c>
-      <c r="O5">
-        <v>5.0514999999999999</v>
-      </c>
-      <c r="P5">
-        <v>4.6466666666666674</v>
-      </c>
-      <c r="Q5">
-        <v>1.767333333333333</v>
-      </c>
-      <c r="R5">
-        <v>4.5933333333333337</v>
-      </c>
-      <c r="S5">
-        <v>4.6666666666666661</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="W5">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="X5">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Y5">
-        <v>781.33333333333326</v>
-      </c>
-      <c r="Z5">
-        <v>7.3</v>
-      </c>
-      <c r="AA5">
-        <v>2349.8166666666671</v>
-      </c>
-      <c r="AB5">
-        <v>3729.8166666666671</v>
-      </c>
-      <c r="AC5">
-        <v>7.9866666666666664</v>
-      </c>
-      <c r="AD5">
-        <v>0.51666666666666661</v>
-      </c>
-      <c r="AE5">
-        <v>45.499999999999993</v>
-      </c>
-      <c r="AF5">
-        <v>530.81333333333328</v>
-      </c>
-      <c r="AG5">
-        <v>156.66666666666671</v>
-      </c>
-      <c r="AH5">
-        <v>584.33333333333326</v>
-      </c>
-      <c r="AI5">
-        <v>6.0533333333333328</v>
-      </c>
-      <c r="AJ5">
-        <v>115.63226666666669</v>
-      </c>
-      <c r="AK5">
-        <v>60</v>
-      </c>
-      <c r="AL5">
-        <v>155.75450000000001</v>
-      </c>
-      <c r="AM5">
-        <v>3</v>
-      </c>
-      <c r="AN5">
-        <v>8</v>
-      </c>
-      <c r="AO5">
-        <v>2</v>
-      </c>
-      <c r="AP5">
-        <v>27</v>
-      </c>
-      <c r="AQ5">
-        <v>0.25</v>
-      </c>
-      <c r="AR5">
-        <v>0.18999999999999989</v>
-      </c>
-      <c r="AS5">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="AT5">
-        <v>0.25</v>
-      </c>
-      <c r="AU5">
-        <v>0.34</v>
-      </c>
-      <c r="AV5">
-        <v>0.2</v>
-      </c>
-      <c r="AW5">
-        <v>0.18999999999999989</v>
-      </c>
-      <c r="AX5">
-        <v>2.5989</v>
-      </c>
-      <c r="AY5">
-        <v>0.36999999999999922</v>
-      </c>
-      <c r="AZ5">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="BA5">
-        <v>1.78</v>
-      </c>
-      <c r="BB5">
-        <v>2</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>2</v>
-      </c>
-      <c r="BF5">
-        <v>4</v>
-      </c>
-      <c r="BG5">
-        <v>2</v>
-      </c>
-      <c r="BH5">
-        <v>17</v>
-      </c>
-      <c r="BI5">
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="BJ5">
-        <v>2000</v>
-      </c>
-      <c r="BK5">
-        <v>3305</v>
-      </c>
-      <c r="BL5">
-        <v>16.97</v>
-      </c>
-      <c r="BM5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BN5">
-        <v>15.15</v>
-      </c>
-      <c r="BO5">
-        <v>439.78</v>
-      </c>
-      <c r="BP5">
-        <v>26</v>
-      </c>
-      <c r="BQ5">
-        <v>397</v>
-      </c>
-      <c r="BR5">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="BS5">
-        <v>55.308399999999992</v>
-      </c>
-      <c r="BT5">
-        <v>74</v>
-      </c>
-      <c r="BU5">
-        <v>183.84</v>
-      </c>
-      <c r="BV5">
-        <v>6</v>
-      </c>
-      <c r="BW5">
-        <v>14</v>
-      </c>
-      <c r="BX5">
-        <v>6</v>
-      </c>
-      <c r="BY5">
-        <v>78</v>
-      </c>
-      <c r="BZ5">
-        <v>1.35</v>
-      </c>
-      <c r="CA5">
-        <v>1.3</v>
-      </c>
-      <c r="CB5">
-        <v>2.7349999999999999</v>
-      </c>
-      <c r="CC5">
-        <v>1.35</v>
-      </c>
-      <c r="CD5">
-        <v>0.74</v>
-      </c>
-      <c r="CE5">
-        <v>1.9</v>
-      </c>
-      <c r="CF5">
-        <v>1.98</v>
-      </c>
-      <c r="CG5">
-        <v>6.7840999999999996</v>
-      </c>
-      <c r="CH5">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="CI5">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="CJ5">
-        <v>5.78</v>
-      </c>
-      <c r="CK5">
-        <v>6</v>
-      </c>
-      <c r="CL5">
-        <v>4</v>
-      </c>
-      <c r="CM5">
-        <v>2</v>
-      </c>
-      <c r="CN5">
-        <v>2</v>
-      </c>
-      <c r="CO5">
-        <v>4</v>
-      </c>
-      <c r="CP5">
-        <v>4</v>
-      </c>
-      <c r="CQ5">
-        <v>787</v>
-      </c>
-      <c r="CR5">
-        <v>11.1</v>
-      </c>
-      <c r="CS5">
-        <v>3683.15</v>
-      </c>
-      <c r="CT5">
-        <v>5933.15</v>
-      </c>
-      <c r="CU5">
-        <v>19.3</v>
-      </c>
-      <c r="CV5">
-        <v>0.71</v>
-      </c>
-      <c r="CW5">
-        <v>50.55</v>
-      </c>
-      <c r="CX5">
-        <v>824</v>
-      </c>
-      <c r="CY5">
-        <v>174</v>
-      </c>
-      <c r="CZ5">
-        <v>849</v>
-      </c>
-      <c r="DA5">
-        <v>8.9</v>
-      </c>
-      <c r="DB5">
-        <v>134.0684</v>
-      </c>
-      <c r="DC5">
-        <v>14</v>
-      </c>
-      <c r="DD5">
-        <v>28.0855</v>
-      </c>
-      <c r="DE5">
-        <v>3</v>
-      </c>
-      <c r="DF5">
-        <v>6</v>
-      </c>
-      <c r="DG5">
-        <v>4</v>
-      </c>
-      <c r="DH5">
-        <v>51</v>
-      </c>
-      <c r="DI5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DJ5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="DK5">
-        <v>1.42</v>
-      </c>
-      <c r="DL5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DM5">
-        <v>0.4</v>
-      </c>
-      <c r="DN5">
-        <v>1.7</v>
-      </c>
-      <c r="DO5">
-        <v>1.79</v>
-      </c>
-      <c r="DP5">
-        <v>4.1852</v>
-      </c>
-      <c r="DQ5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="DR5">
-        <v>1.47</v>
-      </c>
-      <c r="DS5">
-        <v>4</v>
-      </c>
-      <c r="DT5">
-        <v>4</v>
-      </c>
-      <c r="DU5">
-        <v>4</v>
-      </c>
-      <c r="DV5">
-        <v>2</v>
-      </c>
-      <c r="DW5">
-        <v>0</v>
-      </c>
-      <c r="DX5">
-        <v>0</v>
-      </c>
-      <c r="DY5">
-        <v>2</v>
-      </c>
-      <c r="DZ5">
-        <v>770</v>
-      </c>
-      <c r="EA5">
-        <v>5.4</v>
-      </c>
-      <c r="EB5">
-        <v>1683.15</v>
-      </c>
-      <c r="EC5">
-        <v>2628.15</v>
-      </c>
-      <c r="ED5">
-        <v>2.33</v>
-      </c>
-      <c r="EE5">
-        <v>0.13</v>
-      </c>
-      <c r="EF5">
-        <v>35.4</v>
-      </c>
-      <c r="EG5">
-        <v>384.22</v>
-      </c>
-      <c r="EH5">
-        <v>148</v>
-      </c>
-      <c r="EI5">
-        <v>452</v>
-      </c>
-      <c r="EJ5">
-        <v>4.63</v>
-      </c>
-      <c r="EK5">
-        <v>78.760000000000005</v>
-      </c>
-      <c r="EL5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6">
-        <v>8.6000000000000014</v>
-      </c>
-      <c r="C6">
-        <v>18.119982</v>
-      </c>
-      <c r="D6">
-        <v>2.4</v>
-      </c>
-      <c r="E6">
-        <v>11.4</v>
-      </c>
-      <c r="F6">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="G6">
-        <v>61.8</v>
-      </c>
-      <c r="H6">
-        <v>0.94000000000000017</v>
-      </c>
-      <c r="I6">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="J6">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="K6">
-        <v>0.94000000000000017</v>
-      </c>
-      <c r="L6">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="M6">
-        <v>2.1080000000000001</v>
-      </c>
-      <c r="N6">
-        <v>2.008</v>
-      </c>
-      <c r="O6">
-        <v>4.7024400000000011</v>
-      </c>
-      <c r="P6">
-        <v>4.8920000000000003</v>
-      </c>
-      <c r="Q6">
-        <v>2.076000000000001</v>
-      </c>
-      <c r="R6">
-        <v>3.4</v>
-      </c>
-      <c r="S6">
-        <v>3.4</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>1.2</v>
-      </c>
-      <c r="W6">
-        <v>0.2</v>
-      </c>
-      <c r="X6">
-        <v>3.2</v>
-      </c>
-      <c r="Y6">
-        <v>881.40000000000009</v>
-      </c>
-      <c r="Z6">
-        <v>5.48</v>
-      </c>
-      <c r="AA6">
-        <v>2759.75</v>
-      </c>
-      <c r="AB6">
-        <v>3790.35</v>
-      </c>
-      <c r="AC6">
-        <v>2.9392</v>
-      </c>
-      <c r="AD6">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="AE6">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="AF6">
-        <v>401.04000000000008</v>
-      </c>
-      <c r="AG6">
-        <v>21.96</v>
-      </c>
-      <c r="AH6">
-        <v>591.6</v>
-      </c>
-      <c r="AI6">
-        <v>6.0519999999999996</v>
-      </c>
-      <c r="AJ6">
-        <v>63.106119999999997</v>
-      </c>
-      <c r="AK6">
-        <v>16</v>
-      </c>
-      <c r="AL6">
-        <v>34.144910000000003</v>
-      </c>
-      <c r="AM6">
-        <v>2</v>
-      </c>
-      <c r="AN6">
-        <v>11</v>
-      </c>
-      <c r="AO6">
-        <v>4</v>
-      </c>
-      <c r="AP6">
-        <v>66</v>
-      </c>
-      <c r="AQ6">
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="AR6">
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="AS6">
-        <v>2.11</v>
-      </c>
-      <c r="AT6">
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="AU6">
-        <v>0.64</v>
-      </c>
-      <c r="AV6">
-        <v>1.19</v>
-      </c>
-      <c r="AW6">
-        <v>0.87000000000000011</v>
-      </c>
-      <c r="AX6">
-        <v>2.5518000000000001</v>
-      </c>
-      <c r="AY6">
-        <v>2.93</v>
-      </c>
-      <c r="AZ6">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="BA6">
-        <v>1</v>
-      </c>
-      <c r="BB6">
-        <v>1</v>
-      </c>
-      <c r="BC6">
-        <v>3</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>2</v>
-      </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
-      <c r="BG6">
-        <v>2</v>
-      </c>
-      <c r="BH6">
-        <v>453</v>
-      </c>
-      <c r="BI6">
-        <v>16</v>
-      </c>
-      <c r="BJ6">
-        <v>1826</v>
-      </c>
-      <c r="BK6">
-        <v>2277</v>
-      </c>
-      <c r="BL6">
-        <v>1.173</v>
-      </c>
-      <c r="BM6">
-        <v>0.5</v>
-      </c>
-      <c r="BN6">
-        <v>105.9</v>
-      </c>
-      <c r="BO6">
-        <v>175.5</v>
-      </c>
-      <c r="BP6">
-        <v>11.2</v>
-      </c>
-      <c r="BQ6">
-        <v>339</v>
-      </c>
-      <c r="BR6">
-        <v>3.47</v>
-      </c>
-      <c r="BS6">
-        <v>103.77630000000001</v>
-      </c>
-      <c r="BT6">
-        <v>21</v>
-      </c>
-      <c r="BU6">
-        <v>44.955910000000003</v>
-      </c>
-      <c r="BV6">
-        <v>4</v>
-      </c>
-      <c r="BW6">
-        <v>14</v>
-      </c>
-      <c r="BX6">
-        <v>7</v>
-      </c>
-      <c r="BY6">
-        <v>77</v>
-      </c>
-      <c r="BZ6">
-        <v>1.6</v>
-      </c>
-      <c r="CA6">
-        <v>1.44</v>
-      </c>
-      <c r="CB6">
-        <v>2.75</v>
-      </c>
-      <c r="CC6">
-        <v>1.6</v>
-      </c>
-      <c r="CD6">
-        <v>0.89</v>
-      </c>
-      <c r="CE6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="CF6">
-        <v>2.37</v>
-      </c>
-      <c r="CG6">
-        <v>5.6246</v>
-      </c>
-      <c r="CH6">
-        <v>6.27</v>
-      </c>
-      <c r="CI6">
-        <v>2.544</v>
-      </c>
-      <c r="CJ6">
-        <v>4</v>
-      </c>
-      <c r="CK6">
-        <v>4</v>
-      </c>
-      <c r="CL6">
-        <v>4</v>
-      </c>
-      <c r="CM6">
-        <v>2</v>
-      </c>
-      <c r="CN6">
-        <v>2</v>
-      </c>
-      <c r="CO6">
-        <v>1</v>
-      </c>
-      <c r="CP6">
-        <v>4</v>
-      </c>
-      <c r="CQ6">
-        <v>1086</v>
-      </c>
-      <c r="CR6">
-        <v>17.8</v>
-      </c>
-      <c r="CS6">
-        <v>3640.15</v>
-      </c>
-      <c r="CT6">
-        <v>5100.1499999999996</v>
-      </c>
-      <c r="CU6">
-        <v>3.5129999999999999</v>
-      </c>
-      <c r="CV6">
-        <v>1.02</v>
-      </c>
-      <c r="CW6">
-        <v>120</v>
-      </c>
-      <c r="CX6">
-        <v>489.7</v>
-      </c>
-      <c r="CY6">
-        <v>27</v>
-      </c>
-      <c r="CZ6">
-        <v>717</v>
-      </c>
-      <c r="DA6">
-        <v>7.37</v>
-      </c>
-      <c r="DB6">
-        <v>121.77630000000001</v>
-      </c>
-      <c r="DC6">
-        <v>5</v>
-      </c>
-      <c r="DD6">
-        <v>10.811</v>
-      </c>
-      <c r="DE6">
-        <v>2</v>
-      </c>
-      <c r="DF6">
-        <v>3</v>
-      </c>
-      <c r="DG6">
-        <v>3</v>
-      </c>
-      <c r="DH6">
-        <v>11</v>
-      </c>
-      <c r="DI6">
-        <v>0.7</v>
-      </c>
-      <c r="DJ6">
-        <v>0.77</v>
-      </c>
-      <c r="DK6">
-        <v>0.64</v>
-      </c>
-      <c r="DL6">
-        <v>0.7</v>
-      </c>
-      <c r="DM6">
-        <v>0.25</v>
-      </c>
-      <c r="DN6">
-        <v>1.36</v>
-      </c>
-      <c r="DO6">
-        <v>1.5</v>
-      </c>
-      <c r="DP6">
-        <v>3.0728</v>
-      </c>
-      <c r="DQ6">
-        <v>3.34</v>
-      </c>
-      <c r="DR6">
-        <v>1.19</v>
-      </c>
-      <c r="DS6">
-        <v>3</v>
-      </c>
-      <c r="DT6">
-        <v>3</v>
-      </c>
-      <c r="DU6">
-        <v>1</v>
-      </c>
-      <c r="DV6">
-        <v>2</v>
-      </c>
-      <c r="DW6">
-        <v>0</v>
-      </c>
-      <c r="DX6">
-        <v>0</v>
-      </c>
-      <c r="DY6">
-        <v>2</v>
-      </c>
-      <c r="DZ6">
-        <v>633</v>
-      </c>
-      <c r="EA6">
-        <v>1.8</v>
-      </c>
-      <c r="EB6">
-        <v>1814.15</v>
-      </c>
-      <c r="EC6">
-        <v>2823.15</v>
-      </c>
-      <c r="ED6">
-        <v>2.34</v>
-      </c>
-      <c r="EE6">
-        <v>0.52</v>
-      </c>
-      <c r="EF6">
-        <v>14.1</v>
-      </c>
-      <c r="EG6">
-        <v>314.2</v>
-      </c>
-      <c r="EH6">
-        <v>15.8</v>
-      </c>
-      <c r="EI6">
-        <v>378</v>
-      </c>
-      <c r="EJ6">
-        <v>3.9</v>
-      </c>
-      <c r="EK6">
-        <v>18</v>
-      </c>
-      <c r="EL6">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
